--- a/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_0.xlsx
+++ b/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,12 +433,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="24" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="24" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="35" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="19" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -477,142 +477,134 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.07670692857142855</v>
+        <v>-0.1181310000000001</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.07670692857142858</v>
+        <v>-0.118131</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.775557561562891e-17</v>
+        <v>-8.326672684688674e-17</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.228</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.0517370494824017</v>
+        <v>-0.7440700617477766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.1153315238095239</v>
+        <v>-0.119037261904762</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.07739813002070393</v>
+        <v>-0.1185492867608582</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.03793339378881992</v>
+        <v>-0.0004879751439038349</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.336</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.04533265403726702</v>
+        <v>0.007344109366823587</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.129826380952381</v>
+        <v>-0.121236761904762</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.0780893314699793</v>
+        <v>-0.1189675735217164</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.0517370494824017</v>
+        <v>-0.002269188383045656</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.392</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.7601720283643892</v>
+        <v>-0.002862256933542751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.1295246666666667</v>
+        <v>-0.1242663333333334</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.07878053291925466</v>
+        <v>-0.1193858602825746</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.05074413374741202</v>
+        <v>-0.004880473050758824</v>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.444</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>-0.00138916066252584</v>
+        <v>-0.01729871951857676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.1277270476190476</v>
+        <v>-0.1282642857142857</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.07947173436853003</v>
+        <v>-0.1198041470434328</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.0482553132505176</v>
-      </c>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="n">
-        <v>-0.392</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>-0.007774721325051692</v>
-      </c>
+        <v>-0.00846013867085299</v>
+      </c>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.1241319523809524</v>
+        <v>-0.1298649047619048</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.08016293581780538</v>
+        <v>-0.1202224338042909</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.04396901656314704</v>
-      </c>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>-0.01866329296066249</v>
-      </c>
+        <v>-0.009642470957613877</v>
+      </c>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.1274029523809524</v>
+        <v>-0.137066761904762</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.08085413726708075</v>
+        <v>-0.1206407205651491</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.04654881511387167</v>
+        <v>-0.01642604133961284</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -620,16 +612,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.1276692380952381</v>
+        <v>-0.1404017142857144</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.08154533871635611</v>
+        <v>-0.1210590073260073</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.04612389937888203</v>
+        <v>-0.01934270695970706</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -637,16 +629,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.1265357142857143</v>
+        <v>-0.1467353809523811</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.08223654016563148</v>
+        <v>-0.1214772940868655</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.04429917412008286</v>
+        <v>-0.02525808686551555</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -654,16 +646,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04000000000000001</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.1285988571428572</v>
+        <v>-0.1547334285714287</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.08292774161490685</v>
+        <v>-0.1218955808477237</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.04567111552795031</v>
+        <v>-0.03283784772370496</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -671,16 +663,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.1281986666666667</v>
+        <v>-0.1607347142857144</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.0836189430641822</v>
+        <v>-0.1223138676085819</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.04457972360248445</v>
+        <v>-0.03842084667713251</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -688,16 +680,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.1282001904761904</v>
+        <v>-0.1673976190476192</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.08431014451345756</v>
+        <v>-0.1227321543694401</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.04389004596273288</v>
+        <v>-0.0446654646781791</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -705,16 +697,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.1303339999999999</v>
+        <v>-0.1767970000000001</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.08500134596273293</v>
+        <v>-0.1231504411302983</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.04533265403726702</v>
+        <v>-0.05364655886970185</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -722,16 +714,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.05600000000000001</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.1226658571428572</v>
+        <v>-0.1834681904761906</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.0856925474120083</v>
+        <v>-0.1235687278911565</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.03697330973084886</v>
+        <v>-0.05989946258503411</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -739,16 +731,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.1180026190476191</v>
+        <v>-0.2006726666666668</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.08638374886128365</v>
+        <v>-0.1239870146520146</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.03161887018633541</v>
+        <v>-0.07668565201465213</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -756,16 +748,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.1121314285714286</v>
+        <v>-0.2190072857142858</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.08707495031055902</v>
+        <v>-0.1244053014128728</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.02505647826086958</v>
+        <v>-0.09460198430141298</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -773,16 +765,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.1014664761904762</v>
+        <v>-0.2334065714285716</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.08776615175983438</v>
+        <v>-0.124823588173731</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.01370032443064183</v>
+        <v>-0.1085829832548405</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -790,16 +782,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07200000000000001</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.1008670476190476</v>
+        <v>-0.2512046666666669</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.08845735320910975</v>
+        <v>-0.1252418749345892</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.01240969440993785</v>
+        <v>-0.1259627917320776</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -807,16 +799,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.07600000000000001</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.1087369523809524</v>
+        <v>-0.2747329523809526</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.08914855465838512</v>
+        <v>-0.1256601616954474</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.01958839772256725</v>
+        <v>-0.1490727906855052</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -824,16 +816,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.1143384285714286</v>
+        <v>-0.3068659523809526</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.08983975610766047</v>
+        <v>-0.1260784484563056</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.02449867246376812</v>
+        <v>-0.180787503924647</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -841,16 +833,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.1244717619047619</v>
+        <v>-0.3480028571428574</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.09053095755693583</v>
+        <v>-0.1264967352171638</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.03394080434782609</v>
+        <v>-0.2215061219256936</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -858,16 +850,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08800000000000001</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.1292019047619048</v>
+        <v>-0.3916640476190479</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.0912221590062112</v>
+        <v>-0.126915021978022</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.0379797457556936</v>
+        <v>-0.264749025641026</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -875,16 +867,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.1277323333333333</v>
+        <v>-0.4358571904761907</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.09191336045548656</v>
+        <v>-0.1273333087388802</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.03581897287784674</v>
+        <v>-0.3085238817373105</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -892,16 +884,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.1211311428571428</v>
+        <v>-0.4851248571428574</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.09260456190476192</v>
+        <v>-0.1277515954997384</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.02852658095238091</v>
+        <v>-0.3573732616431191</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -909,16 +901,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.1189352857142857</v>
+        <v>-0.5339238571428574</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.09329576335403729</v>
+        <v>-0.1281698822605966</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.0256395223602484</v>
+        <v>-0.4057539748822608</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -926,16 +918,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.1194014761904762</v>
+        <v>-0.5874580476190479</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.09398696480331264</v>
+        <v>-0.1285881690214547</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.02541451138716354</v>
+        <v>-0.4588698785975931</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -943,16 +935,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.121734619047619</v>
+        <v>-0.6493949523809527</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.09467816625258801</v>
+        <v>-0.1290064557823129</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.02705645279503102</v>
+        <v>-0.5203884965986397</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -960,16 +952,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.1242663333333333</v>
+        <v>-0.7071283809523814</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.09536936770186337</v>
+        <v>-0.1294247425431711</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.02889696563146994</v>
+        <v>-0.5777036384092102</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -977,16 +969,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.1282642857142857</v>
+        <v>-0.7599910952380957</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.09606056915113874</v>
+        <v>-0.1298430293040293</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.03220371656314693</v>
+        <v>-0.6301480659340664</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -994,16 +986,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.1298649047619048</v>
+        <v>-0.8119270000000005</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.09675177060041409</v>
+        <v>-0.1302613160648875</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.03311313416149067</v>
+        <v>-0.681665683935113</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1011,16 +1003,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.1370667619047619</v>
+        <v>-0.8449947142857148</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.09744297204968946</v>
+        <v>-0.1306796028257457</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.03962378985507242</v>
+        <v>-0.7143151114599691</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1028,16 +1020,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.1404017142857143</v>
+        <v>-0.8689910000000005</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.09813417349896483</v>
+        <v>-0.1310978895866039</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.04226754078674949</v>
+        <v>-0.7378931104133967</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1045,16 +1037,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.146735380952381</v>
+        <v>-0.8755862380952386</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.09882537494824019</v>
+        <v>-0.1315161763474621</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.04791000600414079</v>
+        <v>-0.7440700617477766</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1062,16 +1054,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.1547334285714286</v>
+        <v>-0.8604556666666672</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.09951657639751554</v>
+        <v>-0.1319344631083202</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.05521685217391303</v>
+        <v>-0.7285212035583469</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1079,16 +1071,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.1607347142857143</v>
+        <v>-0.8295920952380957</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.1002077778467909</v>
+        <v>-0.1323527498691784</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.0605269364389234</v>
+        <v>-0.6972393453689173</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1096,16 +1088,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.1673976190476191</v>
+        <v>-0.7902025714285719</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.1008989792960663</v>
+        <v>-0.1327710366300366</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.06649863975155285</v>
+        <v>-0.6574315347985352</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1113,16 +1105,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.176797</v>
+        <v>-0.7354730952380957</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.1015901807453417</v>
+        <v>-0.1331893233908948</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.07520681925465839</v>
+        <v>-0.6022837718472008</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1130,16 +1122,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.1834681904761905</v>
+        <v>-0.6744731428571433</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.102281382194617</v>
+        <v>-0.133607610151753</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.08118680828157351</v>
+        <v>-0.5408655327053903</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1147,16 +1139,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.2006726666666667</v>
+        <v>-0.6049987619047622</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.1029725836438924</v>
+        <v>-0.1340258969126112</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.0977000830227743</v>
+        <v>-0.470972864992151</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1164,16 +1156,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.2190072857142857</v>
+        <v>-0.5432677619047622</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.1036637850931677</v>
+        <v>-0.1344441836734694</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.115343500621118</v>
+        <v>-0.4088235782312928</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1181,16 +1173,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.2334065714285714</v>
+        <v>-0.4889336666666669</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.1043549865424431</v>
+        <v>-0.1348624704343276</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.1290515848861283</v>
+        <v>-0.3540711962323393</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1198,16 +1190,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.2512046666666667</v>
+        <v>-0.4363373333333336</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.1050461879917185</v>
+        <v>-0.1352807571951858</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.1461584786749483</v>
+        <v>-0.3010565761381478</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1215,16 +1207,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.2747329523809524</v>
+        <v>-0.3832000952380955</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.1057373894409938</v>
+        <v>-0.135699043956044</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.1689955629399586</v>
+        <v>-0.2475010512820515</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1232,16 +1224,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.3068659523809524</v>
+        <v>-0.3312630476190479</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.1064285908902692</v>
+        <v>-0.1361173307169022</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.2004373614906832</v>
+        <v>-0.1951457169021457</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1249,16 +1241,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.3480028571428572</v>
+        <v>-0.2887935714285716</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.1071197923395446</v>
+        <v>-0.1365356174777604</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.2408830648033126</v>
+        <v>-0.1522579539508113</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1266,16 +1258,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.3916640476190476</v>
+        <v>-0.2541944761904764</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.1078109937888199</v>
+        <v>-0.1369539042386185</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.2838530538302277</v>
+        <v>-0.1172405719518578</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1283,16 +1275,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.4358571904761904</v>
+        <v>-0.2331933809523811</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.1085021952380953</v>
+        <v>-0.1373721909994767</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.3273549952380952</v>
+        <v>-0.0958211899529044</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1300,16 +1292,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.4851248571428571</v>
+        <v>-0.2146633809523811</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.1091933966873706</v>
+        <v>-0.1377904777603349</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.3759314604554865</v>
+        <v>-0.07687290319204618</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1317,16 +1309,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.5339238571428572</v>
+        <v>-0.1907955714285716</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.109884598136646</v>
+        <v>-0.1382087645211931</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.4240392590062112</v>
+        <v>-0.05258680690737846</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1334,16 +1326,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.5874580476190475</v>
+        <v>-0.1746640476190477</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.1105757995859214</v>
+        <v>-0.1386270512820513</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.4768822480331262</v>
+        <v>-0.03603699633699645</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1351,16 +1343,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.6493949523809524</v>
+        <v>-0.1605309523809525</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.1112670010351967</v>
+        <v>-0.1390453380429095</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.5381279513457556</v>
+        <v>-0.021485614338043</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1368,16 +1360,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.707128380952381</v>
+        <v>-0.1512630952380953</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.1119582024844721</v>
+        <v>-0.1394636248037677</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.5951701784679089</v>
+        <v>-0.01179947043432761</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1385,16 +1377,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.7599910952380953</v>
+        <v>-0.1479324761904762</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.1126494039337474</v>
+        <v>-0.1398819115646259</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.6473416913043478</v>
+        <v>-0.008050564625850354</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1402,16 +1394,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.8119270000000001</v>
+        <v>-0.1438716666666667</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.1133406053830228</v>
+        <v>-0.1403001983254841</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.6985863946169772</v>
+        <v>-0.003571468341182604</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1419,16 +1411,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.8449947142857144</v>
+        <v>-0.1344081904761905</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.1140318068322982</v>
+        <v>-0.1407184850863422</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.7309629074534162</v>
+        <v>0.006310294610151701</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1436,16 +1428,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.8689910000000001</v>
+        <v>-0.1280720000000001</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.1147230082815735</v>
+        <v>-0.1411367718472004</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.7542679917184265</v>
+        <v>0.01306477184720037</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1453,16 +1445,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.8755862380952382</v>
+        <v>-0.1268011904761906</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.1154142097308489</v>
+        <v>-0.1415550586080586</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.7601720283643892</v>
+        <v>0.01475386813186805</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1470,16 +1462,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.8604556666666667</v>
+        <v>-0.1279970476190477</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.1161054111801243</v>
+        <v>-0.1419733453689168</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.7443502554865424</v>
+        <v>0.01397629774986911</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1487,16 +1479,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.8295920952380953</v>
+        <v>-0.1347290000000001</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.1167966126293996</v>
+        <v>-0.142391632129775</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.7127954826086956</v>
+        <v>0.007662632129774916</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1504,16 +1496,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.7902025714285714</v>
+        <v>-0.1354658095238096</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.117487814078675</v>
+        <v>-0.1428099188906332</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.6727147573498964</v>
+        <v>0.007344109366823587</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1521,16 +1513,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.7354730952380952</v>
+        <v>-0.1328680476190477</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.1181790155279503</v>
+        <v>-0.1432282056514914</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.6172940797101449</v>
+        <v>0.01036015803244364</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1538,16 +1530,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.6744731428571429</v>
+        <v>-0.1281327142857143</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.1188702169772257</v>
+        <v>-0.1436464924123496</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.5556029258799171</v>
+        <v>0.01551377812663524</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1555,16 +1547,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.6049987619047619</v>
+        <v>-0.1280696666666667</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.1195614184265011</v>
+        <v>-0.1440647791732078</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.4854373434782608</v>
+        <v>0.01599511250654101</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1572,16 +1564,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.5432677619047619</v>
+        <v>-0.1268039523809524</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.1202526198757764</v>
+        <v>-0.144483065934066</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.4230151420289854</v>
+        <v>0.01767911355311352</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1589,16 +1581,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.4889336666666666</v>
+        <v>-0.1322710000000001</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.1209438213250518</v>
+        <v>-0.1449013526949242</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.3679898453416148</v>
+        <v>0.01263035269492407</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1606,16 +1598,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.4363373333333333</v>
+        <v>-0.136337761904762</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.1216350227743272</v>
+        <v>-0.1453196394557823</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.3147023105590061</v>
+        <v>0.00898187755102034</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1623,16 +1615,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.3832000952380953</v>
+        <v>-0.1384681904761905</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.1223262242236025</v>
+        <v>-0.1457379262166405</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.2608738710144928</v>
+        <v>0.007269735740450006</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1640,16 +1632,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.3312630476190477</v>
+        <v>-0.1393969523809525</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.1230174256728779</v>
+        <v>-0.1461562129774987</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.2082456219461698</v>
+        <v>0.006759260596546246</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1657,16 +1649,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.2887935714285715</v>
+        <v>-0.1379984761904763</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1237086271221533</v>
+        <v>-0.1465744997383569</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.1650849443064182</v>
+        <v>0.008576023547880618</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1674,16 +1666,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.2541944761904762</v>
+        <v>-0.1385333333333334</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.1243998285714286</v>
+        <v>-0.1469927864992151</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.1297946476190476</v>
+        <v>0.008459453165881703</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1691,16 +1683,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.233193380952381</v>
+        <v>-0.1444020000000001</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.125091030020704</v>
+        <v>-0.1474110732600733</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.108102350931677</v>
+        <v>0.003009073260073214</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1708,16 +1700,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.214663380952381</v>
+        <v>-0.1483327142857144</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.1257822314699794</v>
+        <v>-0.1478293600209315</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.08888114948240161</v>
+        <v>-0.0005033542647829015</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1725,16 +1717,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.1907955714285715</v>
+        <v>-0.147331380952381</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1264734329192547</v>
+        <v>-0.1482476467817897</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.06432213850931673</v>
+        <v>0.0009162658294086523</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1742,16 +1734,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.1746640476190476</v>
+        <v>-0.1515281904761906</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.1271646343685301</v>
+        <v>-0.1486659335426478</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.04749941325051757</v>
+        <v>-0.002862256933542751</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1759,16 +1751,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.1605309523809524</v>
+        <v>-0.1453942857142858</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.1278558358178054</v>
+        <v>-0.149084220303506</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.03267511656314695</v>
+        <v>0.003689934589220234</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1776,16 +1768,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.1512630952380952</v>
+        <v>-0.1455317142857144</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.1285470372670808</v>
+        <v>-0.1495025070643642</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.02271605797101442</v>
+        <v>0.003970792778649868</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1793,16 +1785,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.1479324761904762</v>
+        <v>-0.1485972857142858</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1292382387163561</v>
+        <v>-0.1499207938252224</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.01869423747412002</v>
+        <v>0.001323508110936622</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1810,16 +1802,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.408</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.1438716666666666</v>
+        <v>-0.1498639523809525</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.1299294401656315</v>
+        <v>-0.1503390805860806</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.0139422265010351</v>
+        <v>0.0004751282051281558</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1827,16 +1819,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.1344081904761905</v>
+        <v>-0.1542649047619049</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.1306206416149069</v>
+        <v>-0.1507573673469388</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.003787548861283574</v>
+        <v>-0.003507537414966039</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1844,16 +1836,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.416</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.128072</v>
+        <v>-0.164063142857143</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.1313118430641823</v>
+        <v>-0.151175654107797</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>0.003239843064182235</v>
+        <v>-0.012887488749346</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1861,16 +1853,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.1268011904761905</v>
+        <v>-0.1610600000000001</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.1320030445134576</v>
+        <v>-0.1515939408686552</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0.00520185403726714</v>
+        <v>-0.009466059131344962</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1878,16 +1870,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.424</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.1279970476190476</v>
+        <v>-0.1575961904761906</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.132694245962733</v>
+        <v>-0.1520122276295134</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0.004697198343685371</v>
+        <v>-0.005583962846677226</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1895,16 +1887,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.134729</v>
+        <v>-0.1527954761904763</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1333854474120083</v>
+        <v>-0.1524305143903716</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.001343552587991681</v>
+        <v>-0.000364961800104785</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1912,16 +1904,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.432</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.1354658095238095</v>
+        <v>-0.1496704761904763</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.1340766488612837</v>
+        <v>-0.1528488011512298</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.00138916066252584</v>
+        <v>0.003178324960753459</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1929,16 +1921,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.1328680476190477</v>
+        <v>-0.1556046666666668</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1347678503105591</v>
+        <v>-0.1532670879120879</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0.00189980269151141</v>
+        <v>-0.002337578754578823</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1946,16 +1938,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.1281327142857143</v>
+        <v>-0.1614710476190477</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1354590517598344</v>
+        <v>-0.1536853746729461</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0.00732633747412012</v>
+        <v>-0.007785672946101607</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1963,16 +1955,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.444</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.1280696666666667</v>
+        <v>-0.1714023809523811</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1361502532091098</v>
+        <v>-0.1541036614338043</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>0.008080586542443119</v>
+        <v>-0.01729871951857676</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1980,16 +1972,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.448</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.1268039523809524</v>
+        <v>-0.169266142857143</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1368414546583852</v>
+        <v>-0.1545219481946625</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0.01003750227743277</v>
+        <v>-0.01474419466248045</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1997,16 +1989,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.452</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.132271</v>
+        <v>-0.1649928095238097</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1375326561076605</v>
+        <v>-0.1549402349555207</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0.005261656107660495</v>
+        <v>-0.01005257456828898</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2014,16 +2006,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.456</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.1363377619047619</v>
+        <v>-0.1586616666666668</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1382238575569359</v>
+        <v>-0.1553585217163789</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>0.001886095652173986</v>
+        <v>-0.003303144950287884</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2031,16 +2023,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.46</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.1384681904761905</v>
+        <v>-0.1573275714285715</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.1389150590062112</v>
+        <v>-0.1557768084772371</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0.0004468685300207664</v>
+        <v>-0.001550762951334439</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2048,16 +2040,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.464</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.1393969523809524</v>
+        <v>-0.1561950952380954</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1396062604554866</v>
+        <v>-0.1561950952380953</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0.0002093080745342035</v>
+        <v>-8.326672684688674e-17</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2065,16 +2057,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.468</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.1379984761904762</v>
+        <v>-0.162797761904762</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.140297461904762</v>
+        <v>-0.162797761904762</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0.002298985714285773</v>
+        <v>0</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2082,16 +2074,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.1385333333333333</v>
+        <v>-0.1657316190476192</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1409886633540373</v>
+        <v>-0.1657316190476192</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0.002455330020703972</v>
+        <v>0</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2099,16 +2091,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.476</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.144402</v>
+        <v>-0.1701290000000001</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.1416798648033127</v>
+        <v>-0.1701290000000001</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>-0.002722135196687347</v>
+        <v>0</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2116,16 +2108,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.48</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.1483327142857143</v>
+        <v>-0.1791288095238097</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.1423710662525881</v>
+        <v>-0.1791288095238097</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>-0.00596164803312621</v>
+        <v>0</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2133,16 +2125,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.147331380952381</v>
+        <v>-0.1862012380952382</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1430622677018634</v>
+        <v>-0.1862012380952382</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>-0.004269113250517542</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2150,16 +2142,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.488</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.1515281904761905</v>
+        <v>-0.1969340000000001</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.1437534691511388</v>
+        <v>-0.1969340000000001</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>-0.007774721325051692</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2167,16 +2159,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.1453942857142857</v>
+        <v>-0.2023346666666667</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.1444446706004142</v>
+        <v>-0.2023346666666667</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>-0.0009496151138715658</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2184,16 +2176,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.1455317142857143</v>
+        <v>-0.1996315238095239</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.1451358720496895</v>
+        <v>-0.1996315238095239</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>-0.0003958422360247904</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2201,428 +2193,20 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.1485972857142857</v>
+        <v>-0.1850889047619051</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.1458270734989649</v>
+        <v>-0.1850889047619051</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>-0.002770212215320839</v>
+        <v>0</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>-0.1498639523809524</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>-0.1465182749482402</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>-0.003345677432712163</v>
-      </c>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>-0.1542649047619048</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>-0.1472094763975156</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>-0.007055428364389188</v>
-      </c>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>-0.416</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>-0.1640631428571429</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>-0.147900677846791</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>-0.01616246501035196</v>
-      </c>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>-0.1610600000000001</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>-0.1485918792960663</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>-0.01246812070393374</v>
-      </c>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>-0.424</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>-0.1575961904761906</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>-0.1492830807453417</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>-0.008313109730848867</v>
-      </c>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>-0.428</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>-0.1527954761904762</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>-0.1499742821946171</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>-0.002821193995859173</v>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>-0.432</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>-0.1496704761904762</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>-0.1506654836438924</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>0.0009950074534162134</v>
-      </c>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>-0.436</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>-0.1556046666666667</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>-0.1513566850931678</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>-0.004247981573498899</v>
-      </c>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>-0.1614710476190477</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>-0.1520478865424431</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>-0.009423161076604514</v>
-      </c>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>-0.171402380952381</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>-0.1527390879917185</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>-0.01866329296066249</v>
-      </c>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>-0.448</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>-0.1692661428571429</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>-0.1534302894409939</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>-0.01583585341614904</v>
-      </c>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>-0.452</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>-0.1649928095238096</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>-0.1541214908902692</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>-0.01087131863354035</v>
-      </c>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>-0.456</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>-0.1586616666666667</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>-0.1548126923395446</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>-0.003848974327122112</v>
-      </c>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>-0.1573275714285714</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>-0.15550389378882</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>-0.001823677639751442</v>
-      </c>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>-0.1561950952380953</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>-0.1561950952380953</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>5.551115123125783e-17</v>
-      </c>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>-0.1627977619047619</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>-0.1627977619047619</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>-0.1657316190476191</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>-0.1657316190476191</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>-0.1701290000000001</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>-0.1701290000000001</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>-0.1791288095238096</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>-0.1791288095238096</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>-0.1862012380952381</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>-0.1862012380952381</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>-0.196934</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>-0.196934</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>-0.492</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>-0.2023346666666667</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>-0.2023346666666667</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>-0.496</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>-0.1996315238095239</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>-0.1996315238095239</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>-0.1850889047619051</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>-0.1850889047619051</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2635,7 +2219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2643,7 +2227,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="19" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -2661,50 +2245,34 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.228</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.0517370494824017</v>
+        <v>-0.7440700617477766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.336</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.04533265403726702</v>
+        <v>0.007344109366823587</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.392</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.7601720283643892</v>
+        <v>-0.002862256933542751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.444</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.00138916066252584</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>-0.392</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>-0.007774721325051692</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>-0.01866329296066249</v>
+        <v>-0.01729871951857676</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_0.xlsx
+++ b/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,13 +433,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="24" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="24" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="35" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="19" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -477,117 +477,121 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.1181310000000001</v>
+        <v>-0.0767069285714287</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.118131</v>
+        <v>-0.0767069285714287</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-8.326672684688674e-17</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.012</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.7440700617477766</v>
+        <v>-0.05196779666119315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.119037261904762</v>
+        <v>-0.1153315238095239</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.1185492867608582</v>
+        <v>-0.07728275643130829</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.0004879751439038349</v>
+        <v>-0.03804876737821562</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.052</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.007344109366823587</v>
+        <v>-0.04671713711001634</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.121236761904762</v>
+        <v>-0.129826380952381</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.1189675735217164</v>
+        <v>-0.07785858429118787</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.002269188383045656</v>
+        <v>-0.05196779666119315</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.228</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.002862256933542751</v>
+        <v>-0.7666329493705532</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.1242663333333334</v>
+        <v>-0.1295246666666667</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.1193858602825746</v>
+        <v>-0.07843441215106745</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.004880473050758824</v>
+        <v>-0.05109025451559929</v>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="n">
-        <v>-0.444</v>
+        <v>-0.336</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>-0.01729871951857676</v>
+        <v>-0.01096516858237548</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.1282642857142857</v>
+        <v>-0.1277270476190477</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.1198041470434328</v>
+        <v>-0.07901024001094703</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.00846013867085299</v>
-      </c>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
+        <v>-0.04871680760810068</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="n">
+        <v>-0.416</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>-0.02046425170068034</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.1298649047619048</v>
+        <v>-0.1241319523809525</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.1202224338042909</v>
+        <v>-0.07958606787082662</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.009642470957613877</v>
+        <v>-0.04454588451012588</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -595,16 +599,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.137066761904762</v>
+        <v>-0.1274029523809525</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.1206407205651491</v>
+        <v>-0.0801618957307062</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.01642604133961284</v>
+        <v>-0.0472410566502463</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -612,16 +616,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.1404017142857144</v>
+        <v>-0.1276692380952382</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.1210590073260073</v>
+        <v>-0.08073772359058579</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.01934270695970706</v>
+        <v>-0.04693151450465244</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -629,16 +633,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.1467353809523811</v>
+        <v>-0.1265357142857144</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.1214772940868655</v>
+        <v>-0.08131355145046537</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.02525808686551555</v>
+        <v>-0.04522216283524902</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -646,16 +650,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.1547334285714287</v>
+        <v>-0.1285988571428572</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.1218955808477237</v>
+        <v>-0.08188937931034496</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.03283784772370496</v>
+        <v>-0.04670947783251228</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -663,16 +667,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.1607347142857144</v>
+        <v>-0.1281986666666667</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.1223138676085819</v>
+        <v>-0.08246520717022454</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.03842084667713251</v>
+        <v>-0.0457334594964422</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -680,16 +684,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.1673976190476192</v>
+        <v>-0.1282001904761905</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.1227321543694401</v>
+        <v>-0.08304103503010413</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.0446654646781791</v>
+        <v>-0.0451591554460864</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -697,16 +701,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.1767970000000001</v>
+        <v>-0.130334</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.1231504411302983</v>
+        <v>-0.0836168628899837</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.05364655886970185</v>
+        <v>-0.04671713711001634</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -714,16 +718,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.05600000000000001</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.1834681904761906</v>
+        <v>-0.1226658571428572</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.1235687278911565</v>
+        <v>-0.08419269074986328</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.05989946258503411</v>
+        <v>-0.03847316639299393</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -731,16 +735,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.2006726666666668</v>
+        <v>-0.1180026190476191</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.1239870146520146</v>
+        <v>-0.08476851860974287</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.07668565201465213</v>
+        <v>-0.03323410043787627</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -748,16 +752,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.2190072857142858</v>
+        <v>-0.1121314285714287</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.1244053014128728</v>
+        <v>-0.08534434646962245</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.09460198430141298</v>
+        <v>-0.02678708210180621</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -765,16 +769,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.2334065714285716</v>
+        <v>-0.1014664761904763</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.124823588173731</v>
+        <v>-0.08592017432950204</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.1085829832548405</v>
+        <v>-0.01554630186097422</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -782,16 +786,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.07200000000000001</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.2512046666666669</v>
+        <v>-0.1008670476190477</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.1252418749345892</v>
+        <v>-0.08649600218938162</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.1259627917320776</v>
+        <v>-0.01437104542966604</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -799,16 +803,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.07600000000000001</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.2747329523809526</v>
+        <v>-0.1087369523809524</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.1256601616954474</v>
+        <v>-0.08707183004926121</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.1490727906855052</v>
+        <v>-0.02166512233169123</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -816,16 +820,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.3068659523809526</v>
+        <v>-0.1143384285714286</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.1260784484563056</v>
+        <v>-0.08764765790914078</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.180787503924647</v>
+        <v>-0.02669077066228787</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -833,16 +837,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.3480028571428574</v>
+        <v>-0.124471761904762</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.1264967352171638</v>
+        <v>-0.08822348576902037</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.2215061219256936</v>
+        <v>-0.03624827613574164</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -850,16 +854,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.08800000000000001</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.3916640476190479</v>
+        <v>-0.1292019047619049</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.126915021978022</v>
+        <v>-0.08879931362889995</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.264749025641026</v>
+        <v>-0.0404025911330049</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -867,16 +871,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.4358571904761907</v>
+        <v>-0.1277323333333334</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.1273333087388802</v>
+        <v>-0.08937514148877954</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.3085238817373105</v>
+        <v>-0.03835719184455386</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -884,16 +888,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.4851248571428574</v>
+        <v>-0.1211311428571429</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.1277515954997384</v>
+        <v>-0.08995096934865912</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.3573732616431191</v>
+        <v>-0.03118017350848377</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -901,16 +905,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.5339238571428574</v>
+        <v>-0.1189352857142857</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.1281698822605966</v>
+        <v>-0.09052679720853871</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.4057539748822608</v>
+        <v>-0.02840848850574704</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -918,16 +922,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.5874580476190479</v>
+        <v>-0.1194014761904763</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.1285881690214547</v>
+        <v>-0.09110262506841829</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.4588698785975931</v>
+        <v>-0.02829885112205796</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -935,16 +939,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.6493949523809527</v>
+        <v>-0.1217346190476191</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.1290064557823129</v>
+        <v>-0.09167845292829788</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.5203884965986397</v>
+        <v>-0.03005616611932124</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -952,16 +956,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.7071283809523814</v>
+        <v>-0.1242663333333334</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.1294247425431711</v>
+        <v>-0.09225428078817746</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.5777036384092102</v>
+        <v>-0.03201205254515593</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -969,16 +973,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.7599910952380957</v>
+        <v>-0.1282642857142857</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.1298430293040293</v>
+        <v>-0.09283010864805703</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.6301480659340664</v>
+        <v>-0.03543417706622871</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -986,16 +990,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.8119270000000005</v>
+        <v>-0.1298649047619048</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.1302613160648875</v>
+        <v>-0.09340593650793662</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.681665683935113</v>
+        <v>-0.0364589682539682</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1003,16 +1007,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.8449947142857148</v>
+        <v>-0.137066761904762</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.1306796028257457</v>
+        <v>-0.0939817643678162</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.7143151114599691</v>
+        <v>-0.04308499753694577</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1020,16 +1024,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.8689910000000005</v>
+        <v>-0.1404017142857144</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.1310978895866039</v>
+        <v>-0.09455759222769579</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.7378931104133967</v>
+        <v>-0.04584412205801859</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1037,16 +1041,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.8755862380952386</v>
+        <v>-0.1467353809523811</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.1315161763474621</v>
+        <v>-0.09513342008757537</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.7440700617477766</v>
+        <v>-0.05160196086480572</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1054,16 +1058,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.8604556666666672</v>
+        <v>-0.1547334285714287</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.1319344631083202</v>
+        <v>-0.09570924794745496</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.7285212035583469</v>
+        <v>-0.0590241806239737</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1071,16 +1075,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.8295920952380957</v>
+        <v>-0.1607347142857144</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.1323527498691784</v>
+        <v>-0.09628507580733454</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.6972393453689173</v>
+        <v>-0.06444963847837985</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1088,16 +1092,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.7902025714285719</v>
+        <v>-0.1673976190476192</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.1327710366300366</v>
+        <v>-0.09686090366721412</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.6574315347985352</v>
+        <v>-0.0705367153804051</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1105,16 +1109,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.7354730952380957</v>
+        <v>-0.1767970000000001</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.1331893233908948</v>
+        <v>-0.0974367315270937</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.6022837718472008</v>
+        <v>-0.07936026847290645</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1122,16 +1126,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.6744731428571433</v>
+        <v>-0.1834681904761906</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.133607610151753</v>
+        <v>-0.09801255938697329</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.5408655327053903</v>
+        <v>-0.08545563108921728</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1139,16 +1143,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.6049987619047622</v>
+        <v>-0.2006726666666668</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.1340258969126112</v>
+        <v>-0.09858838724685287</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.470972864992151</v>
+        <v>-0.1020842794198139</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1156,16 +1160,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.5432677619047622</v>
+        <v>-0.2190072857142858</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.1344441836734694</v>
+        <v>-0.09916421510673246</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.4088235782312928</v>
+        <v>-0.1198430706075534</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1173,16 +1177,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.4889336666666669</v>
+        <v>-0.2334065714285716</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.1348624704343276</v>
+        <v>-0.09974004296661204</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.3540711962323393</v>
+        <v>-0.1336665284619595</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1190,16 +1194,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.4363373333333336</v>
+        <v>-0.2512046666666669</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.1352807571951858</v>
+        <v>-0.1003158708264916</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.3010565761381478</v>
+        <v>-0.1508887958401752</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1207,16 +1211,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.3832000952380955</v>
+        <v>-0.2747329523809526</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.135699043956044</v>
+        <v>-0.1008916986863712</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.2475010512820515</v>
+        <v>-0.1738412536945814</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1224,16 +1228,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.3312630476190479</v>
+        <v>-0.3068659523809526</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.1361173307169022</v>
+        <v>-0.1014675265462508</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.1951457169021457</v>
+        <v>-0.2053984258347018</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1241,16 +1245,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.2887935714285716</v>
+        <v>-0.3480028571428574</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.1365356174777604</v>
+        <v>-0.1020433544061304</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.1522579539508113</v>
+        <v>-0.245959502736727</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1258,16 +1262,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.2541944761904764</v>
+        <v>-0.3916640476190479</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.1369539042386185</v>
+        <v>-0.10261918226601</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.1172405719518578</v>
+        <v>-0.2890448653530379</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1275,16 +1279,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.2331933809523811</v>
+        <v>-0.4358571904761907</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.1373721909994767</v>
+        <v>-0.1031950101258895</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.0958211899529044</v>
+        <v>-0.3326621803503012</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1292,16 +1296,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.2146633809523811</v>
+        <v>-0.4851248571428574</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.1377904777603349</v>
+        <v>-0.1037708379857691</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.07687290319204618</v>
+        <v>-0.3813540191570883</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1309,16 +1313,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.1907955714285716</v>
+        <v>-0.5339238571428574</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.1382087645211931</v>
+        <v>-0.1043466658456487</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.05258680690737846</v>
+        <v>-0.4295771912972087</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1326,16 +1330,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.1746640476190477</v>
+        <v>-0.5874580476190479</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.1386270512820513</v>
+        <v>-0.1049224937055283</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.03603699633699645</v>
+        <v>-0.4825355539135195</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1343,16 +1347,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.1605309523809525</v>
+        <v>-0.6493949523809527</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.1390453380429095</v>
+        <v>-0.1054983215654079</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.021485614338043</v>
+        <v>-0.5438966308155448</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1360,16 +1364,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.1512630952380953</v>
+        <v>-0.7071283809523814</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.1394636248037677</v>
+        <v>-0.1060741494252875</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.01179947043432761</v>
+        <v>-0.6010542315270939</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1377,16 +1381,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.1479324761904762</v>
+        <v>-0.7599910952380957</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.1398819115646259</v>
+        <v>-0.106649977285167</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.008050564625850354</v>
+        <v>-0.6533411179529287</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1394,16 +1398,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.1438716666666667</v>
+        <v>-0.8119270000000005</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.1403001983254841</v>
+        <v>-0.1072258051450466</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.003571468341182604</v>
+        <v>-0.7047011948549539</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1411,16 +1415,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.1344081904761905</v>
+        <v>-0.8449947142857148</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.1407184850863422</v>
+        <v>-0.1078016330049262</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.006310294610151701</v>
+        <v>-0.7371930812807886</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1428,16 +1432,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.1280720000000001</v>
+        <v>-0.8689910000000005</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.1411367718472004</v>
+        <v>-0.1083774608648058</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.01306477184720037</v>
+        <v>-0.7606135391351947</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1445,16 +1449,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.1268011904761906</v>
+        <v>-0.8755862380952385</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.1415550586080586</v>
+        <v>-0.1089532887246854</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0.01475386813186805</v>
+        <v>-0.7666329493705532</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1462,16 +1466,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.1279970476190477</v>
+        <v>-0.8604556666666672</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.1419733453689168</v>
+        <v>-0.109529116584565</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0.01397629774986911</v>
+        <v>-0.7509265500821022</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1479,16 +1483,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.1347290000000001</v>
+        <v>-0.8295920952380957</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.142391632129775</v>
+        <v>-0.1101049444444445</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0.007662632129774916</v>
+        <v>-0.7194871507936512</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1496,16 +1500,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.1354658095238096</v>
+        <v>-0.7902025714285719</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.1428099188906332</v>
+        <v>-0.1106807723043241</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.007344109366823587</v>
+        <v>-0.6795217991242477</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1513,16 +1517,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.1328680476190477</v>
+        <v>-0.7354730952380957</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.1432282056514914</v>
+        <v>-0.1112566001642037</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.01036015803244364</v>
+        <v>-0.624216495073892</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1530,16 +1534,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.1281327142857143</v>
+        <v>-0.6744731428571433</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.1436464924123496</v>
+        <v>-0.1118324280240833</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.01551377812663524</v>
+        <v>-0.56264071483306</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1547,16 +1551,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.1280696666666667</v>
+        <v>-0.6049987619047622</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.1440647791732078</v>
+        <v>-0.1124082558839629</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0.01599511250654101</v>
+        <v>-0.4925905060207993</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1564,16 +1568,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.1268039523809524</v>
+        <v>-0.5432677619047622</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.144483065934066</v>
+        <v>-0.1129840837438425</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0.01767911355311352</v>
+        <v>-0.4302836781609198</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1581,16 +1585,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.1322710000000001</v>
+        <v>-0.4889336666666669</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.1449013526949242</v>
+        <v>-0.113559911603722</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0.01263035269492407</v>
+        <v>-0.3753737550629449</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1598,16 +1602,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.136337761904762</v>
+        <v>-0.4363373333333336</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.1453196394557823</v>
+        <v>-0.1141357394636016</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.00898187755102034</v>
+        <v>-0.322201593869732</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1615,16 +1619,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.1384681904761905</v>
+        <v>-0.3832000952380955</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.1457379262166405</v>
+        <v>-0.1147115673234812</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.007269735740450006</v>
+        <v>-0.2684885279146143</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1632,16 +1636,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.1393969523809525</v>
+        <v>-0.3312630476190479</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.1461562129774987</v>
+        <v>-0.1152873951833608</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.006759260596546246</v>
+        <v>-0.2159756524356871</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1649,16 +1653,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.1379984761904763</v>
+        <v>-0.2887935714285716</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1465744997383569</v>
+        <v>-0.1158632230432404</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.008576023547880618</v>
+        <v>-0.1729303483853313</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1666,16 +1670,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.1385333333333334</v>
+        <v>-0.2541944761904764</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.1469927864992151</v>
+        <v>-0.11643905090312</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.008459453165881703</v>
+        <v>-0.1377554252873565</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1683,16 +1687,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.1444020000000001</v>
+        <v>-0.2331933809523811</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.1474110732600733</v>
+        <v>-0.1170148787629995</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.003009073260073214</v>
+        <v>-0.1161785021893816</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1700,16 +1704,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.1483327142857144</v>
+        <v>-0.2146633809523811</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.1478293600209315</v>
+        <v>-0.1175907066228791</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.0005033542647829015</v>
+        <v>-0.09707267432950198</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1717,16 +1721,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.147331380952381</v>
+        <v>-0.1907955714285716</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1482476467817897</v>
+        <v>-0.1181665344827587</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0.0009162658294086523</v>
+        <v>-0.07262903694581285</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1734,16 +1738,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.1515281904761906</v>
+        <v>-0.1746640476190477</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.1486659335426478</v>
+        <v>-0.1187423623426383</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.002862256933542751</v>
+        <v>-0.05592168527640945</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1751,16 +1755,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.1453942857142858</v>
+        <v>-0.1605309523809525</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.149084220303506</v>
+        <v>-0.1193181902025179</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.003689934589220234</v>
+        <v>-0.04121276217843459</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1768,16 +1772,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.1455317142857144</v>
+        <v>-0.1512630952380953</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.1495025070643642</v>
+        <v>-0.1198940180623975</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0.003970792778649868</v>
+        <v>-0.03136907717569783</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1785,16 +1789,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.1485972857142858</v>
+        <v>-0.1479324761904762</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1499207938252224</v>
+        <v>-0.120469845922277</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>0.001323508110936622</v>
+        <v>-0.02746263026819919</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1802,16 +1806,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.408</v>
+        <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.1498639523809525</v>
+        <v>-0.1438716666666667</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.1503390805860806</v>
+        <v>-0.1210456737821566</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>0.0004751282051281558</v>
+        <v>-0.02282599288451008</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1819,16 +1823,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.412</v>
+        <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.1542649047619049</v>
+        <v>-0.1344081904761905</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.1507573673469388</v>
+        <v>-0.1216215016420362</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.003507537414966039</v>
+        <v>-0.01278668883415433</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1836,16 +1840,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.416</v>
+        <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.164063142857143</v>
+        <v>-0.1280720000000001</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.151175654107797</v>
+        <v>-0.1221973295019158</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.012887488749346</v>
+        <v>-0.005874670498084281</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1853,16 +1857,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.42</v>
+        <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.1610600000000001</v>
+        <v>-0.1268011904761906</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.1515939408686552</v>
+        <v>-0.1227731573617954</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.009466059131344962</v>
+        <v>-0.004028033114395202</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1870,16 +1874,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.424</v>
+        <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.1575961904761906</v>
+        <v>-0.1279970476190477</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1520122276295134</v>
+        <v>-0.123348985221675</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.005583962846677226</v>
+        <v>-0.004648062397372754</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1887,16 +1891,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.428</v>
+        <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.1527954761904763</v>
+        <v>-0.1347290000000001</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1524305143903716</v>
+        <v>-0.1239248130815545</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.000364961800104785</v>
+        <v>-0.01080418691844556</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1904,16 +1908,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.432</v>
+        <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.1496704761904763</v>
+        <v>-0.1354658095238096</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.1528488011512298</v>
+        <v>-0.1245006409414341</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0.003178324960753459</v>
+        <v>-0.01096516858237548</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1921,16 +1925,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.436</v>
+        <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.1556046666666668</v>
+        <v>-0.1328680476190477</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1532670879120879</v>
+        <v>-0.1250764688013137</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.002337578754578823</v>
+        <v>-0.007791578817734041</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1938,16 +1942,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.44</v>
+        <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.1614710476190477</v>
+        <v>-0.1281327142857144</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1536853746729461</v>
+        <v>-0.1256522966611933</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-0.007785672946101607</v>
+        <v>-0.002480417624521086</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1955,16 +1959,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.444</v>
+        <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.1714023809523811</v>
+        <v>-0.1280696666666667</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1541036614338043</v>
+        <v>-0.1262281245210729</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-0.01729871951857676</v>
+        <v>-0.001841542145593872</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1972,16 +1976,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.448</v>
+        <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.169266142857143</v>
+        <v>-0.1268039523809525</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1545219481946625</v>
+        <v>-0.1268039523809525</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-0.01474419466248045</v>
+        <v>0</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1989,16 +1993,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.452</v>
+        <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.1649928095238097</v>
+        <v>-0.1322710000000001</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1549402349555207</v>
+        <v>-0.1278536360544218</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-0.01005257456828898</v>
+        <v>-0.004417363945578234</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2006,16 +2010,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.456</v>
+        <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.1586616666666668</v>
+        <v>-0.136337761904762</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1553585217163789</v>
+        <v>-0.1289033197278912</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-0.003303144950287884</v>
+        <v>-0.007434442176870754</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2023,16 +2027,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.46</v>
+        <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.1573275714285715</v>
+        <v>-0.1384681904761905</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.1557768084772371</v>
+        <v>-0.1299530034013606</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>-0.001550762951334439</v>
+        <v>-0.0085151870748299</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2040,16 +2044,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.464</v>
+        <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.1561950952380954</v>
+        <v>-0.1393969523809525</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1561950952380953</v>
+        <v>-0.13100268707483</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>-8.326672684688674e-17</v>
+        <v>-0.008394265306122445</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2057,16 +2061,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.468</v>
+        <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.162797761904762</v>
+        <v>-0.1379984761904763</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.162797761904762</v>
+        <v>-0.1320523707482994</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0</v>
+        <v>-0.005946105442176886</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2074,16 +2078,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.472</v>
+        <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.1657316190476192</v>
+        <v>-0.1385333333333334</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1657316190476192</v>
+        <v>-0.1331020544217688</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0</v>
+        <v>-0.005431278911564585</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2091,16 +2095,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.476</v>
+        <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.1701290000000001</v>
+        <v>-0.1444020000000001</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.1701290000000001</v>
+        <v>-0.1341517380952382</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>0</v>
+        <v>-0.01025026190476191</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2108,16 +2112,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.48</v>
+        <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.1791288095238097</v>
+        <v>-0.1483327142857144</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.1791288095238097</v>
+        <v>-0.1352014217687076</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0</v>
+        <v>-0.01313129251700679</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2125,16 +2129,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.484</v>
+        <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.1862012380952382</v>
+        <v>-0.147331380952381</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1862012380952382</v>
+        <v>-0.1362511054421769</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0</v>
+        <v>-0.01108027551020407</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2142,16 +2146,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.488</v>
+        <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.1969340000000001</v>
+        <v>-0.1515281904761906</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.1969340000000001</v>
+        <v>-0.1373007891156464</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0</v>
+        <v>-0.01422740136054423</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2159,16 +2163,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.492</v>
+        <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.2023346666666667</v>
+        <v>-0.1453942857142858</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.2023346666666667</v>
+        <v>-0.1383504727891157</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>0</v>
+        <v>-0.007043812925170062</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2176,16 +2180,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.496</v>
+        <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.1996315238095239</v>
+        <v>-0.1455317142857144</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.1996315238095239</v>
+        <v>-0.1394001564625851</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>0</v>
+        <v>-0.006131557823129241</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2193,20 +2197,428 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.5</v>
+        <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.1850889047619051</v>
+        <v>-0.1485972857142858</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.1850889047619051</v>
+        <v>-0.1404498401360545</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>0</v>
+        <v>-0.008147445578231272</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>-0.408</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>-0.1498639523809525</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>-0.1414995238095239</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>-0.00836442857142855</v>
+      </c>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>-0.412</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>-0.1542649047619049</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>-0.1425492074829933</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>-0.01171569727891159</v>
+      </c>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="n"/>
+      <c r="G104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>-0.416</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>-0.164063142857143</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>-0.1435988911564627</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>-0.02046425170068034</v>
+      </c>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="n"/>
+      <c r="G105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>-0.1610600000000001</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>-0.1446485748299321</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>-0.01641142517006805</v>
+      </c>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="n"/>
+      <c r="G106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>-0.424</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>-0.1575961904761906</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>-0.1456982585034015</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>-0.01189793197278916</v>
+      </c>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+      <c r="G107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>-0.428</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>-0.1527954761904763</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>-0.1467479421768708</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>-0.006047534013605499</v>
+      </c>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>-0.432</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>-0.1496704761904763</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>-0.1477976258503402</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>-0.001872850340136067</v>
+      </c>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="n"/>
+      <c r="G109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>-0.1556046666666668</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>-0.1488473095238096</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>-0.006757357142857107</v>
+      </c>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+      <c r="G110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>-0.1614710476190477</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>-0.149896993197279</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>-0.01157405442176873</v>
+      </c>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+      <c r="G111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>-0.444</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>-0.1714023809523811</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>-0.1509466768707484</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>-0.02045570408163266</v>
+      </c>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
+      <c r="G112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>-0.448</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>-0.169266142857143</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>-0.1519963605442178</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>-0.0172697823129252</v>
+      </c>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+      <c r="G113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>-0.452</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>-0.1649928095238097</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>-0.1530460442176872</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>-0.01194676530612249</v>
+      </c>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+      <c r="G114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>-0.1586616666666668</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>-0.1540957278911566</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>-0.004565938775510231</v>
+      </c>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="n"/>
+      <c r="G115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>-0.1573275714285715</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>-0.155145411564626</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>-0.002182159863945543</v>
+      </c>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="n"/>
+      <c r="G116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>-0.464</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>-0.1561950952380954</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>-0.1561950952380954</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>-0.468</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>-0.162797761904762</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>-0.162797761904762</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>-0.1657316190476192</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>-0.1657316190476192</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>-0.476</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>-0.1701290000000001</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>-0.1701290000000001</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>-0.1791288095238097</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>-0.1791288095238097</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="n"/>
+      <c r="G121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>-0.484</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>-0.1862012380952382</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>-0.1862012380952382</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="n"/>
+      <c r="G122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>-0.1969340000000001</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>-0.1969340000000001</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="n"/>
+      <c r="F123" s="2" t="n"/>
+      <c r="G123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>-0.2023346666666668</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>-0.2023346666666668</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="n"/>
+      <c r="G124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>-0.496</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>-0.1996315238095241</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>-0.1996315238095241</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="n"/>
+      <c r="G125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>-0.1850889047619054</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>-0.1850889047619054</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2219,7 +2631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,8 +2639,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2245,34 +2657,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.012</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.7440700617477766</v>
+        <v>-0.05196779666119315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.052</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.007344109366823587</v>
+        <v>-0.04671713711001634</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.228</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.002862256933542751</v>
+        <v>-0.7666329493705532</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.444</v>
+        <v>-0.336</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.01729871951857676</v>
+        <v>-0.01096516858237548</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>-0.416</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>-0.02046425170068034</v>
       </c>
     </row>
   </sheetData>
